--- a/compiled_data.xlsx
+++ b/compiled_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QiaoChuDing_1/Desktop/Birkbeck/2024-2025/4. Project/Project/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QiaoChuDing_1/Desktop/Birkbeck/2024-2025/4. Project/msc-project-source-code-files-24-25-QiaochuDing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8571E9C-4BE3-1149-ADAA-D22FE1C2B3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42978BCF-C593-4A46-A1E8-03ACB30C47DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{07F16F2F-F45A-3944-98AC-CCAAC91587A3}"/>
   </bookViews>
@@ -580,7 +580,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
